--- a/data-dictionary/Dictionary.ACO.SSP.PUF.Y2018.xlsx
+++ b/data-dictionary/Dictionary.ACO.SSP.PUF.Y2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DAFDA\Website Updates\2018 PUF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenjiang/Documents/Gov 1005 Data/Final-Project/data-dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956B02D-E9CC-1444-97A7-07EE10E9C07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2640" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="8380" yWindow="460" windowWidth="18320" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACO PUF Dictionary 2018" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="546">
   <si>
-    <t xml:space="preserve">Notes: </t>
-  </si>
-  <si>
     <t>Performance year (PY) 2018 is calendar year (CY) 2018.</t>
   </si>
   <si>
@@ -1695,11 +1693,14 @@
   <si>
     <t>Total number of short-term acute care hospitals (excluding CAHs and ETA hospitals) participating in the ACO in the performance year. Based on the ACO’s certified participant list used in financial reconciliation and information in the PECOS.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2203,3060 +2204,3062 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="3" max="3" width="86.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="14" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="D22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="20" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="20" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="B41" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="C41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="150" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="B42" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="E41" s="20" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="11"/>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="11"/>
+    </row>
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" s="11"/>
+    </row>
+    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="11"/>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" s="11"/>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="11"/>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E121" s="11"/>
+    </row>
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="11"/>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" s="11"/>
+    </row>
+    <row r="127" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" s="11"/>
+    </row>
+    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="11"/>
+    </row>
+    <row r="131" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" s="11"/>
+    </row>
+    <row r="132" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="11"/>
+    </row>
+    <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="11"/>
+    </row>
+    <row r="134" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="11"/>
+    </row>
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="11"/>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" s="11"/>
+    </row>
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" s="16"/>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" s="11"/>
+    </row>
+    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="11"/>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="11"/>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="11"/>
-    </row>
-    <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="D113" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E114" s="11"/>
-    </row>
-    <row r="115" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="11"/>
-    </row>
-    <row r="116" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" s="11"/>
-    </row>
-    <row r="117" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" s="11"/>
-    </row>
-    <row r="118" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="11"/>
-    </row>
-    <row r="121" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="E121" s="11"/>
-    </row>
-    <row r="122" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E122" s="11"/>
-    </row>
-    <row r="123" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="11"/>
-    </row>
-    <row r="124" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E125" s="11"/>
-    </row>
-    <row r="126" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E126" s="11"/>
-    </row>
-    <row r="127" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E127" s="11"/>
-    </row>
-    <row r="128" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E128" s="11"/>
-    </row>
-    <row r="129" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E129" s="11"/>
-    </row>
-    <row r="130" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E130" s="11"/>
-    </row>
-    <row r="131" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E131" s="11"/>
-    </row>
-    <row r="132" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E132" s="11"/>
-    </row>
-    <row r="133" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" s="11"/>
-    </row>
-    <row r="134" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E134" s="11"/>
-    </row>
-    <row r="135" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="11"/>
-    </row>
-    <row r="136" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E136" s="11"/>
-    </row>
-    <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E138" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="D142" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E142" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="D143" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D144" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E144" s="11"/>
-    </row>
-    <row r="145" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E145" s="13"/>
-    </row>
-    <row r="146" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E146" s="13"/>
-    </row>
-    <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="16"/>
-    </row>
-    <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E148" s="11"/>
-    </row>
-    <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E149" s="11"/>
-    </row>
-    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C150" s="17" t="s">
+      <c r="D151" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D150" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E150" s="11"/>
-    </row>
-    <row r="151" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E151" s="11" t="s">
+    </row>
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="C152" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="D152" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="11"/>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D152" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E152" s="11"/>
-    </row>
-    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+      <c r="B153" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="C153" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="D153" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="D153" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E153" s="20" t="s">
+    </row>
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+      <c r="B154" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="D154" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D154" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E154" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+      <c r="B155" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="C155" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="D155" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D155" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E155" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+      <c r="B156" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="C156" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="D156" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="D156" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E156" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+      <c r="B157" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="D157" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="D157" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+      <c r="B158" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="C158" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="C158" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E158" s="20" t="s">
+    </row>
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A159" s="17" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="17" t="s">
+      <c r="B159" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="C159" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="C159" s="19" t="s">
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E159" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B160" s="17" t="s">
+    </row>
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C160" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="D160" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E160" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="17" t="s">
+      <c r="B161" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="C161" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C161" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E161" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="17" t="s">
+      <c r="B162" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="C162" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="C162" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E162" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="17" t="s">
+      <c r="B163" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="C163" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C163" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E163" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="17" t="s">
+      <c r="B164" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="C164" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C164" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D164" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E164" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="17" t="s">
+      <c r="B165" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="C165" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C165" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="D165" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E165" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="17" t="s">
+      <c r="B166" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="C166" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="D166" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="D166" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E166" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="17" t="s">
+      <c r="B167" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="C167" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="D167" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="D167" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E167" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
+      <c r="B168" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="C168" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="D168" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A169" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="D168" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E168" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="17" t="s">
+      <c r="B169" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="C169" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="D169" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E169" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="17" t="s">
+      <c r="B170" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="C170" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="D170" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D170" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E170" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="17" t="s">
+      <c r="B171" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="C171" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="D171" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="D171" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E171" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="17" t="s">
+      <c r="B172" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="C172" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="D172" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A173" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="D172" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E172" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="17" t="s">
+      <c r="B173" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="C173" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="D173" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="D173" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E173" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
+      <c r="B174" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="C174" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="D174" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A175" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="D174" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E174" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="17" t="s">
+      <c r="B175" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="C175" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="D175" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="D175" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="17" t="s">
+      <c r="B176" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="C176" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="D176" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A177" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="D176" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E176" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="17" t="s">
+      <c r="B177" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="C177" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="D177" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A178" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="D177" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E177" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A178" s="17" t="s">
+      <c r="B178" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="C178" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="D178" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A179" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D178" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E178" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="17" t="s">
+      <c r="B179" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="C179" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="D179" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="D179" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E179" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="17" t="s">
+      <c r="B180" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="C180" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="D180" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A181" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="D180" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E180" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="17" t="s">
+      <c r="B181" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="C181" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="D181" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A182" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="D181" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E181" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="17" t="s">
+      <c r="B182" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="C182" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="D182" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E182" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A183" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="D182" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E182" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="17" t="s">
+      <c r="B183" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="C183" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="D183" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E183" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A184" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="D183" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
+      <c r="B184" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="C184" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="D184" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A185" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="D184" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E184" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="17" t="s">
+      <c r="B185" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="C185" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="D185" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A186" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="D185" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="17" t="s">
+      <c r="B186" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="C186" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="D186" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A187" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="D186" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E186" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A187" s="17" t="s">
+      <c r="B187" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="C187" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="D187" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E187" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A188" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="D187" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E187" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="17" t="s">
+      <c r="B188" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="C188" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="D188" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A189" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="D188" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E188" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="17" t="s">
+      <c r="B189" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="C189" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="C189" s="17" t="s">
-        <v>533</v>
-      </c>
       <c r="D189" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-ID-crosswalk.xlsx"/>
-    <hyperlink ref="E24" r:id="rId2" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E25" r:id="rId3" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E26" r:id="rId4" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E27" r:id="rId5" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E29" r:id="rId6" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E30" r:id="rId7" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E31" r:id="rId8" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E32" r:id="rId9" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E33" r:id="rId10" display="https://innovation.cms.gov/initiatives/Advance-Payment-ACO-Model/"/>
-    <hyperlink ref="E34" r:id="rId11" display="https://innovation.cms.gov/initiatives/ACO-Investment-Model/"/>
-    <hyperlink ref="E35" r:id="rId12" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/SNF-Waiver-Guidance.pdf"/>
-    <hyperlink ref="E36" r:id="rId13" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E37" r:id="rId14" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E38" r:id="rId15" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E39" r:id="rId16" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E40" r:id="rId17" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="A13" r:id="rId18" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/index.html"/>
-    <hyperlink ref="A15" r:id="rId19" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E42" r:id="rId20" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E44" r:id="rId21" location="se42.3.425_1502" display="https://www.ecfr.gov/cgi-bin/retrieveECFR?gp=&amp;SID=b9c5657916beed9595110909485da4d8&amp;mc=true&amp;n=pt42.3.425&amp;r=PART&amp;ty=HTML - se42.3.425_1502"/>
-    <hyperlink ref="E45" r:id="rId22" location="se42.3.425_1502" display="https://www.ecfr.gov/cgi-bin/retrieveECFR?gp=&amp;SID=b9c5657916beed9595110909485da4d8&amp;mc=true&amp;n=pt42.3.425&amp;r=PART&amp;ty=HTML - se42.3.425_1502"/>
-    <hyperlink ref="E47" r:id="rId23" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E48" r:id="rId24" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E49" r:id="rId25" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E50" r:id="rId26" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E51" r:id="rId27" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E52" r:id="rId28" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E53" r:id="rId29" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E54" r:id="rId30" display="http://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO_Advance_Payment_Factsheet_ICN907403.pdf"/>
-    <hyperlink ref="E55" r:id="rId31" display="http://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO_Advance_Payment_Factsheet_ICN907403.pdf"/>
-    <hyperlink ref="E57" r:id="rId32" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E58" r:id="rId33" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E59" r:id="rId34" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E60" r:id="rId35" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E61" r:id="rId36" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E62" r:id="rId37" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E63" r:id="rId38" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E64" r:id="rId39" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E65" r:id="rId40" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E66" r:id="rId41" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E67" r:id="rId42" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E68" r:id="rId43" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E69" r:id="rId44" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E70" r:id="rId45" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E71" r:id="rId46" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E72" r:id="rId47" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E73" r:id="rId48" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E74" r:id="rId49" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E75" r:id="rId50" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E76" r:id="rId51" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E77" r:id="rId52" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E78" r:id="rId53" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E79" r:id="rId54" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E80" r:id="rId55" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E81" r:id="rId56" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E82" r:id="rId57" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E83" r:id="rId58" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E84" r:id="rId59" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E85" r:id="rId60" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E86" r:id="rId61" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E87" r:id="rId62" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E88" r:id="rId63" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E89" r:id="rId64" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E90" r:id="rId65" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E91" r:id="rId66" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E92" r:id="rId67" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E93" r:id="rId68" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E94" r:id="rId69" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E95" r:id="rId70" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E96" r:id="rId71" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E97" r:id="rId72" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E98" r:id="rId73" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E99" r:id="rId74" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E100" r:id="rId75" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E101" r:id="rId76" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E137" r:id="rId77" display="https://www.cms.gov/Research-Statistics-Data-and-Systems/Statistics-Trends-and-Reports/MedicareFeeforSvcPartsAB/downloads/betosdesccodes.pdf"/>
-    <hyperlink ref="E138" r:id="rId78" display="https://www.cms.gov/Research-Statistics-Data-and-Systems/Statistics-Trends-and-Reports/MedicareFeeforSvcPartsAB/downloads/betosdesccodes.pdf"/>
-    <hyperlink ref="E139" r:id="rId79" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E140" r:id="rId80" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E141" r:id="rId81" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E142" r:id="rId82" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E143" r:id="rId83" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf"/>
-    <hyperlink ref="E153" r:id="rId84" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf"/>
-    <hyperlink ref="E154" r:id="rId85" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf"/>
-    <hyperlink ref="E155" r:id="rId86" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf"/>
-    <hyperlink ref="E156" r:id="rId87" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf"/>
-    <hyperlink ref="E157" r:id="rId88" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf"/>
-    <hyperlink ref="E158" r:id="rId89" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E159" r:id="rId90" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E160" r:id="rId91" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E161" r:id="rId92" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E162" r:id="rId93" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E163" r:id="rId94" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E164" r:id="rId95" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E165" r:id="rId96" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E166" r:id="rId97" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E167" r:id="rId98" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E168" r:id="rId99" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E169" r:id="rId100" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E170" r:id="rId101" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E171" r:id="rId102" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E172" r:id="rId103" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E173" r:id="rId104" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E174" r:id="rId105" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E175" r:id="rId106" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E176" r:id="rId107" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E177" r:id="rId108" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E178" r:id="rId109" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures"/>
-    <hyperlink ref="E179" r:id="rId110" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E180" r:id="rId111" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E181" r:id="rId112" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E182" r:id="rId113" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E184" r:id="rId114" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E185" r:id="rId115" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E186" r:id="rId116" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E187" r:id="rId117" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E188" r:id="rId118" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E189" r:id="rId119" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
-    <hyperlink ref="E41" r:id="rId120" location="se42.3.425_1606"/>
-    <hyperlink ref="E43" r:id="rId121" location="se42.3.425_1502"/>
-    <hyperlink ref="E46" r:id="rId122" location="se42.3.425_1502"/>
-    <hyperlink ref="E183" r:id="rId123" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures."/>
+    <hyperlink ref="E18" r:id="rId1" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-ID-crosswalk.xlsx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E24" r:id="rId2" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E25" r:id="rId3" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E26" r:id="rId4" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E27" r:id="rId5" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E29" r:id="rId6" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E30" r:id="rId7" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E31" r:id="rId8" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E32" r:id="rId9" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E33" r:id="rId10" display="https://innovation.cms.gov/initiatives/Advance-Payment-ACO-Model/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E34" r:id="rId11" display="https://innovation.cms.gov/initiatives/ACO-Investment-Model/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E35" r:id="rId12" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/SNF-Waiver-Guidance.pdf" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E36" r:id="rId13" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E37" r:id="rId14" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E38" r:id="rId15" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E39" r:id="rId16" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E40" r:id="rId17" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A13" r:id="rId18" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/index.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A15" r:id="rId19" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E42" r:id="rId20" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E44" r:id="rId21" location="se42.3.425_1502" display="https://www.ecfr.gov/cgi-bin/retrieveECFR?gp=&amp;SID=b9c5657916beed9595110909485da4d8&amp;mc=true&amp;n=pt42.3.425&amp;r=PART&amp;ty=HTML - se42.3.425_1502" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E45" r:id="rId22" location="se42.3.425_1502" display="https://www.ecfr.gov/cgi-bin/retrieveECFR?gp=&amp;SID=b9c5657916beed9595110909485da4d8&amp;mc=true&amp;n=pt42.3.425&amp;r=PART&amp;ty=HTML - se42.3.425_1502" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E47" r:id="rId23" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E48" r:id="rId24" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E49" r:id="rId25" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E50" r:id="rId26" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E51" r:id="rId27" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E52" r:id="rId28" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E53" r:id="rId29" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E54" r:id="rId30" display="http://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO_Advance_Payment_Factsheet_ICN907403.pdf" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E55" r:id="rId31" display="http://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO_Advance_Payment_Factsheet_ICN907403.pdf" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E57" r:id="rId32" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E58" r:id="rId33" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E59" r:id="rId34" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E60" r:id="rId35" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E61" r:id="rId36" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E62" r:id="rId37" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E63" r:id="rId38" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E64" r:id="rId39" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E65" r:id="rId40" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E66" r:id="rId41" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E67" r:id="rId42" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E68" r:id="rId43" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E69" r:id="rId44" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E70" r:id="rId45" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E71" r:id="rId46" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E72" r:id="rId47" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E73" r:id="rId48" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E74" r:id="rId49" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E75" r:id="rId50" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E76" r:id="rId51" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E77" r:id="rId52" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E78" r:id="rId53" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E79" r:id="rId54" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E80" r:id="rId55" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E81" r:id="rId56" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E82" r:id="rId57" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E83" r:id="rId58" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E84" r:id="rId59" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E85" r:id="rId60" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E86" r:id="rId61" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E87" r:id="rId62" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E88" r:id="rId63" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E89" r:id="rId64" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E90" r:id="rId65" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E91" r:id="rId66" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E92" r:id="rId67" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E93" r:id="rId68" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E94" r:id="rId69" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E95" r:id="rId70" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E96" r:id="rId71" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E97" r:id="rId72" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E98" r:id="rId73" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E99" r:id="rId74" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E100" r:id="rId75" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E101" r:id="rId76" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E137" r:id="rId77" display="https://www.cms.gov/Research-Statistics-Data-and-Systems/Statistics-Trends-and-Reports/MedicareFeeforSvcPartsAB/downloads/betosdesccodes.pdf" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E138" r:id="rId78" display="https://www.cms.gov/Research-Statistics-Data-and-Systems/Statistics-Trends-and-Reports/MedicareFeeforSvcPartsAB/downloads/betosdesccodes.pdf" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E139" r:id="rId79" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E140" r:id="rId80" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E141" r:id="rId81" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E142" r:id="rId82" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E143" r:id="rId83" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/Shared-Savings-Losses-Assignment-Spec-V6.pdf" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E153" r:id="rId84" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E154" r:id="rId85" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E155" r:id="rId86" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E156" r:id="rId87" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E157" r:id="rId88" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/Downloads/ACO-Participant-List-Agreement.pdf" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E158" r:id="rId89" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E159" r:id="rId90" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E160" r:id="rId91" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E161" r:id="rId92" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E162" r:id="rId93" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E163" r:id="rId94" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E164" r:id="rId95" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E165" r:id="rId96" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E166" r:id="rId97" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E167" r:id="rId98" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E168" r:id="rId99" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E169" r:id="rId100" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E170" r:id="rId101" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E171" r:id="rId102" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E172" r:id="rId103" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E173" r:id="rId104" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E174" r:id="rId105" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E175" r:id="rId106" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E176" r:id="rId107" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E177" r:id="rId108" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E178" r:id="rId109" location="quality-measures" display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E179" r:id="rId110" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E180" r:id="rId111" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E181" r:id="rId112" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E182" r:id="rId113" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E184" r:id="rId114" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E185" r:id="rId115" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E186" r:id="rId116" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E187" r:id="rId117" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E188" r:id="rId118" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E189" r:id="rId119" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E41" r:id="rId120" location="se42.3.425_1606" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E43" r:id="rId121" location="se42.3.425_1502" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E46" r:id="rId122" location="se42.3.425_1502" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E183" r:id="rId123" location="quality-measures." display="https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/sharedsavingsprogram/program-guidance-and-specifications.html - quality-measures." xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId124"/>
@@ -5264,531 +5267,531 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FP1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="EO3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AL1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AO1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AQ1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AR1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AT1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AV1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AX1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AY1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AZ1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BA1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BB1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BC1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BD1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BE1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BF1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BG1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BH1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BI1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BJ1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BK1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BM1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BN1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BO1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BP1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BQ1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BR1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BS1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BT1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BU1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BV1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BW1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BX1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BY1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BZ1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CA1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="CB1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CC1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CD1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="CE1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="CF1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CG1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="CH1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CI1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CJ1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="CK1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="CL1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="CM1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CN1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="CO1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="CP1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CQ1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="CR1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="CS1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="CT1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CU1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CV1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CW1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="CX1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CY1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="CZ1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="DA1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DB1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DC1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DD1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DE1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="DF1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DG1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DH1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="DI1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="DJ1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="DK1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="DL1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="DM1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="DN1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="DO1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="DQ1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="DR1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="DS1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="DT1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="DU1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DV1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="DW1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="DX1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="DY1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="DZ1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="EA1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="EB1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="EC1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="ED1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="EE1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="EF1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="EG1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="EH1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="EI1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="EJ1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="EK1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="EL1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="EM1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="EN1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="EO1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="EP1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="EQ1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="ER1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="ES1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="ET1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="EU1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="EV1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="EW1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="EX1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="EY1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EZ1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="FA1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="FB1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="FC1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="FD1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="FE1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="FF1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="FG1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="FH1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="FI1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="FJ1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="FK1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="FL1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="FM1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="FN1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="FO1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="FP1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5798,35 +5801,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Calendar_x0020_Year xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">2018</Calendar_x0020_Year>
-    <Div_x002f_Org xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">RTI</Div_x002f_Org>
-    <Data_x0020__x002d__x0020_Subcategory xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">18</Data_x0020__x002d__x0020_Subcategory>
-    <Doc_x0020_Status xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">Final</Doc_x0020_Status>
-    <Data_x0020__x002d__x0020_Category xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">6</Data_x0020__x002d__x0020_Category>
-    <Description0 xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b" xsi:nil="true"/>
-    <Doc_x0020_Type xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">Data Dictionary</Doc_x0020_Type>
-    <ACO_x0020_ID xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="86a8e296-5f29-4af2-954b-0de0d1e1f8bc" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016E175D1D4D77C40853E837E21916AC7" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1642a185fd361a6e53b2a0824d299fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81d1232f-70db-4e1b-9853-8d9bb280f40b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c63b68726d54b62a6c355afdbf16112" ns2:_="">
     <xsd:import namespace="81d1232f-70db-4e1b-9853-8d9bb280f40b"/>
@@ -6070,39 +6044,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB20939B-5515-4F92-B4EA-5C3F30656103}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="81d1232f-70db-4e1b-9853-8d9bb280f40b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="86a8e296-5f29-4af2-954b-0de0d1e1f8bc" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2629950A-42DE-4057-B940-A0D640F2E90E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A00B49D-5459-4E87-8067-5912FF330ADB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Calendar_x0020_Year xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">2018</Calendar_x0020_Year>
+    <Div_x002f_Org xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">RTI</Div_x002f_Org>
+    <Data_x0020__x002d__x0020_Subcategory xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">18</Data_x0020__x002d__x0020_Subcategory>
+    <Doc_x0020_Status xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">Final</Doc_x0020_Status>
+    <Data_x0020__x002d__x0020_Category xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">6</Data_x0020__x002d__x0020_Category>
+    <Description0 xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b" xsi:nil="true"/>
+    <Doc_x0020_Type xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b">Data Dictionary</Doc_x0020_Type>
+    <ACO_x0020_ID xmlns="81d1232f-70db-4e1b-9853-8d9bb280f40b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{579B787C-D1CE-4E3D-A0B3-4ABE943155DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6118,4 +6089,36 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A00B49D-5459-4E87-8067-5912FF330ADB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2629950A-42DE-4057-B940-A0D640F2E90E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB20939B-5515-4F92-B4EA-5C3F30656103}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="81d1232f-70db-4e1b-9853-8d9bb280f40b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>